--- a/H23R30/Released/BOM/H23R30_BOM.xlsx
+++ b/H23R30/Released/BOM/H23R30_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Project\HexaBitz PCB\H23R3x-Hardware-master\H23R30\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Qty</t>
   </si>
@@ -192,15 +192,6 @@
     <t>https://octopart.com/mmz1608y300b-tdk-368280?r=sp&amp;s=cd9_2ZEqQ9q9UNBuQgHAiA</t>
   </si>
   <si>
-    <t>HEXABIT_17.32_NO_P4_P10_P11</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Hexabitz Hexagon Module ConnectorHexagon side length = 17.32mm.The following ports are removed: P4 P10 P11</t>
-  </si>
-  <si>
     <t>PAD1</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>Red 0603 130آ° Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
-  </si>
-  <si>
     <t>Vishay</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>Description :</t>
-  </si>
-  <si>
     <t xml:space="preserve">STMicroelectronics </t>
   </si>
   <si>
@@ -252,19 +237,25 @@
     <t>X1</t>
   </si>
   <si>
-    <t>MURATA   CSTCE8M00G52-R0   RESONATOR, SMD, 8MHZ ;</t>
-  </si>
-  <si>
-    <t>CSTCE8M00G52Z-R0</t>
-  </si>
-  <si>
-    <t>https://octopart.com/cstce8m00g52z-r0-murata-17755941?r=sp&amp;s=JDnNJnrHQhyS8Zk4ofFWXw</t>
-  </si>
-  <si>
     <t>Designator</t>
   </si>
   <si>
     <t>C5, C11, C12, C3, C6, C8, C9</t>
+  </si>
+  <si>
+    <t>CSTNE8M00G550000R0</t>
+  </si>
+  <si>
+    <t>https://octopart.com/cstne8m00g550000r0-murata-91406934?r=sp</t>
+  </si>
+  <si>
+    <t>MURATA   Ceramic Resonator 8MHz ±0.5% (Tol) ±0.2% (Stability) 33pF 40Ohm 3-Pin CSMD</t>
+  </si>
+  <si>
+    <t>Red 0603 Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
+  </si>
+  <si>
+    <t>MCU 32-bit ARM Cortex M0 RISC 128KB Flash 2.5V/3.3V 48-Pin UFQFPN</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1324,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
@@ -1455,7 +1446,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>57</v>
@@ -1463,9 +1454,7 @@
       <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1474,13 +1463,13 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1491,19 +1480,27 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1511,20 +1508,20 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>69</v>
@@ -1542,44 +1539,19 @@
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1593,9 +1565,9 @@
     <hyperlink ref="H9" r:id="rId8"/>
     <hyperlink ref="H10" r:id="rId9"/>
     <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H15" r:id="rId11"/>
-    <hyperlink ref="H16" r:id="rId12"/>
-    <hyperlink ref="H17" r:id="rId13"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
